--- a/scripts/work-pulse.xlsx
+++ b/scripts/work-pulse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\potykion.github.io\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77B6D84-5B46-4449-908F-FF8A5C21EA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14F7E48-F747-4B07-A90B-E0E1FDE5F13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="11710" xr2:uid="{2B2692C1-2028-4975-A8F7-C513352BE6D3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{2B2692C1-2028-4975-A8F7-C513352BE6D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -102,6 +102,1028 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>аг</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F16-444E-92BF-BE112F4C3D1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>рбкн</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6F16-444E-92BF-BE112F4C3D1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>потик.ио</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$2:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6F16-444E-92BF-BE112F4C3D1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1179969152"/>
+        <c:axId val="1179960512"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="1179969152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1179960512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1179960512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1179969152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6038704C-DE4D-15B5-EEF8-7CB4F1834AC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,7 +1446,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -468,9 +1490,18 @@
       <c r="A3" s="1">
         <v>45450</v>
       </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
       <c r="E3">
         <f t="shared" ref="E3:E19" si="0">SUM(B3:D3)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -619,5 +1650,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/scripts/work-pulse.xlsx
+++ b/scripts/work-pulse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\potykion.github.io\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14F7E48-F747-4B07-A90B-E0E1FDE5F13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1D7427-9491-4F29-9BA9-41876E2BA758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{2B2692C1-2028-4975-A8F7-C513352BE6D3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>аг</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>итог</t>
+  </si>
+  <si>
+    <t>отдых</t>
   </si>
 </sst>
 </file>
@@ -179,37 +182,43 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$3</c:f>
+              <c:f>Лист1!$A$2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>45449</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$3</c:f>
+              <c:f>Лист1!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6F16-444E-92BF-BE112F4C3D1B}"/>
+              <c16:uniqueId val="{00000000-5ED1-4D15-AD6F-D85CD92A3889}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -238,37 +247,43 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$3</c:f>
+              <c:f>Лист1!$A$2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>45449</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$3</c:f>
+              <c:f>Лист1!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6F16-444E-92BF-BE112F4C3D1B}"/>
+              <c16:uniqueId val="{00000001-5ED1-4D15-AD6F-D85CD92A3889}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -290,6 +305,71 @@
             <a:solidFill>
               <a:schemeClr val="accent3"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45451</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5ED1-4D15-AD6F-D85CD92A3889}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>отдых</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
             <a:ln w="25400">
               <a:noFill/>
             </a:ln>
@@ -297,29 +377,35 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$3</c:f>
+              <c:f>Лист1!$A$2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>45449</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$3</c:f>
+              <c:f>Лист1!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -327,7 +413,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6F16-444E-92BF-BE112F4C3D1B}"/>
+              <c16:uniqueId val="{00000003-5ED1-4D15-AD6F-D85CD92A3889}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -339,11 +425,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1179969152"/>
-        <c:axId val="1179960512"/>
+        <c:axId val="1929873632"/>
+        <c:axId val="1929874592"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="1179969152"/>
+        <c:axId val="1929873632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -386,14 +472,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1179960512"/>
+        <c:crossAx val="1929874592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1179960512"/>
+        <c:axId val="1929874592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,7 +530,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1179969152"/>
+        <c:crossAx val="1929873632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1090,22 +1176,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
+        <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6038704C-DE4D-15B5-EEF8-7CB4F1834AC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F90914E-F1AC-B5E3-C9BB-7ED238FC1BE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1443,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA4A586-9122-4134-8108-D77A7508D773}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1454,7 +1540,7 @@
     <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1465,10 +1551,13 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45449</v>
       </c>
@@ -1482,11 +1571,14 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <f>SUM(B2:D2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>SUM(B2:E2)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45450</v>
       </c>
@@ -1500,150 +1592,165 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E19" si="0">SUM(B3:D3)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F19" si="0">SUM(B3:E3)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45451</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45452</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45453</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45454</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45455</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45456</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45457</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45458</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45459</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45460</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45461</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45462</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45463</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45464</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45465</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45466</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/scripts/work-pulse.xlsx
+++ b/scripts/work-pulse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\potykion.github.io\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1D7427-9491-4F29-9BA9-41876E2BA758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A620427-0F09-492E-B7A4-C5B80BB1189B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{2B2692C1-2028-4975-A8F7-C513352BE6D3}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11710" xr2:uid="{2B2692C1-2028-4975-A8F7-C513352BE6D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -182,10 +182,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:f>Лист1!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>45449</c:v>
                 </c:pt>
@@ -194,16 +194,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>45451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$4</c:f>
+              <c:f>Лист1!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -211,6 +214,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -247,10 +253,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:f>Лист1!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>45449</c:v>
                 </c:pt>
@@ -259,16 +265,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>45451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$4</c:f>
+              <c:f>Лист1!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -276,6 +285,9 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -312,10 +324,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:f>Лист1!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>45449</c:v>
                 </c:pt>
@@ -324,16 +336,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>45451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$4</c:f>
+              <c:f>Лист1!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -342,6 +357,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,10 +395,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:f>Лист1!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>45449</c:v>
                 </c:pt>
@@ -389,16 +407,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>45451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$4</c:f>
+              <c:f>Лист1!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -407,6 +428,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,14 +1199,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>301625</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
@@ -1532,7 +1556,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1624,9 +1648,21 @@
       <c r="A5" s="1">
         <v>45452</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">

--- a/scripts/work-pulse.xlsx
+++ b/scripts/work-pulse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\potykion.github.io\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A620427-0F09-492E-B7A4-C5B80BB1189B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440F36E4-35B6-4BCA-8642-F4E46F72A812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11710" xr2:uid="{2B2692C1-2028-4975-A8F7-C513352BE6D3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{2B2692C1-2028-4975-A8F7-C513352BE6D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -182,10 +182,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$5</c:f>
+              <c:f>Лист1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45449</c:v>
                 </c:pt>
@@ -197,16 +197,58 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>45452</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45456</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45458</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45459</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45461</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45462</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45465</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$5</c:f>
+              <c:f>Лист1!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -218,6 +260,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -253,10 +298,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$5</c:f>
+              <c:f>Лист1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45449</c:v>
                 </c:pt>
@@ -268,16 +313,58 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>45452</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45456</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45458</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45459</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45461</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45462</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45465</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$5</c:f>
+              <c:f>Лист1!$C$2:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -289,6 +376,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -324,10 +414,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$5</c:f>
+              <c:f>Лист1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45449</c:v>
                 </c:pt>
@@ -339,16 +429,58 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>45452</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45456</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45458</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45459</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45461</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45462</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45465</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$5</c:f>
+              <c:f>Лист1!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -360,6 +492,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -395,10 +530,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$5</c:f>
+              <c:f>Лист1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45449</c:v>
                 </c:pt>
@@ -410,16 +545,58 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>45452</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45456</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45458</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45459</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45461</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45462</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45465</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$5</c:f>
+              <c:f>Лист1!$E$2:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -431,6 +608,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1556,7 +1736,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1669,9 +1849,21 @@
       <c r="A6" s="1">
         <v>45453</v>
       </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">

--- a/scripts/work-pulse.xlsx
+++ b/scripts/work-pulse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\potykion.github.io\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440F36E4-35B6-4BCA-8642-F4E46F72A812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA485079-D7B0-4D70-A508-6B22CE8E22D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{2B2692C1-2028-4975-A8F7-C513352BE6D3}"/>
   </bookViews>
@@ -378,7 +378,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1736,7 +1736,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1853,7 +1853,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">

--- a/scripts/work-pulse.xlsx
+++ b/scripts/work-pulse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\potykion.github.io\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA485079-D7B0-4D70-A508-6B22CE8E22D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2F50B9-15CB-4B85-86D6-4E2240BE3F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{2B2692C1-2028-4975-A8F7-C513352BE6D3}"/>
   </bookViews>
@@ -264,6 +264,9 @@
                 <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -380,6 +383,9 @@
                 <c:pt idx="4">
                   <c:v>7</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -496,6 +502,9 @@
                 <c:pt idx="4">
                   <c:v>7</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -611,6 +620,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1736,7 +1748,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1870,9 +1882,21 @@
       <c r="A7" s="1">
         <v>45454</v>
       </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">

--- a/scripts/work-pulse.xlsx
+++ b/scripts/work-pulse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\potykion.github.io\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2F50B9-15CB-4B85-86D6-4E2240BE3F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C5D1FD-D2A1-423D-B9DB-98AA9A980E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{2B2692C1-2028-4975-A8F7-C513352BE6D3}"/>
   </bookViews>
@@ -267,6 +267,9 @@
                 <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -386,6 +389,9 @@
                 <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -505,6 +511,9 @@
                 <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -623,6 +632,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1748,7 +1760,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1903,9 +1915,21 @@
       <c r="A8" s="1">
         <v>45455</v>
       </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">

--- a/scripts/work-pulse.xlsx
+++ b/scripts/work-pulse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\potykion.github.io\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C5D1FD-D2A1-423D-B9DB-98AA9A980E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE52D31-A072-4239-9321-E6E76D8DA5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{2B2692C1-2028-4975-A8F7-C513352BE6D3}"/>
   </bookViews>
@@ -270,6 +270,9 @@
                 <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -392,6 +395,9 @@
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -514,6 +520,9 @@
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -635,6 +644,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1760,7 +1772,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1936,9 +1948,21 @@
       <c r="A9" s="1">
         <v>45456</v>
       </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">

--- a/scripts/work-pulse.xlsx
+++ b/scripts/work-pulse.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\potykion.github.io\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE52D31-A072-4239-9321-E6E76D8DA5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41CCA54-92AB-4C06-9AE4-357D09640ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{2B2692C1-2028-4975-A8F7-C513352BE6D3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Пульс" sheetId="1" r:id="rId1"/>
+    <sheet name="Начисления" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>аг</t>
   </si>
@@ -51,6 +52,21 @@
   </si>
   <si>
     <t>отдых</t>
+  </si>
+  <si>
+    <t>привычка "закинуть чтото в блог"</t>
+  </si>
+  <si>
+    <t>чтение</t>
+  </si>
+  <si>
+    <t>Что</t>
+  </si>
+  <si>
+    <t>Категория</t>
+  </si>
+  <si>
+    <t>Сколько баллов</t>
   </si>
 </sst>
 </file>
@@ -162,7 +178,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$B$1</c:f>
+              <c:f>Пульс!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -182,7 +198,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$19</c:f>
+              <c:f>Пульс!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="18"/>
@@ -245,7 +261,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$19</c:f>
+              <c:f>Пульс!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -271,6 +287,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -287,7 +306,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$1</c:f>
+              <c:f>Пульс!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -307,7 +326,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$19</c:f>
+              <c:f>Пульс!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="18"/>
@@ -370,7 +389,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$19</c:f>
+              <c:f>Пульс!$C$2:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -396,6 +415,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -412,7 +434,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$D$1</c:f>
+              <c:f>Пульс!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -432,7 +454,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$19</c:f>
+              <c:f>Пульс!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="18"/>
@@ -495,7 +517,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$19</c:f>
+              <c:f>Пульс!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -522,6 +544,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -537,7 +562,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$E$1</c:f>
+              <c:f>Пульс!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -557,7 +582,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$19</c:f>
+              <c:f>Пульс!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="18"/>
@@ -620,7 +645,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$19</c:f>
+              <c:f>Пульс!$E$2:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -646,7 +671,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1772,7 +1800,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1958,20 +1986,32 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45457</v>
       </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -2059,4 +2099,57 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9005C9BF-FB02-4574-8AA4-757E33886A08}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/scripts/work-pulse.xlsx
+++ b/scripts/work-pulse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\potykion.github.io\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41CCA54-92AB-4C06-9AE4-357D09640ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C371A8E5-D246-4A23-9F3F-D586BFB1545C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{2B2692C1-2028-4975-A8F7-C513352BE6D3}"/>
   </bookViews>
@@ -37,13 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>аг</t>
-  </si>
-  <si>
-    <t>рбкн</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>потик.ио</t>
   </si>
@@ -54,12 +48,6 @@
     <t>отдых</t>
   </si>
   <si>
-    <t>привычка "закинуть чтото в блог"</t>
-  </si>
-  <si>
-    <t>чтение</t>
-  </si>
-  <si>
     <t>Что</t>
   </si>
   <si>
@@ -67,6 +55,33 @@
   </si>
   <si>
     <t>Сколько баллов</t>
+  </si>
+  <si>
+    <t>Полезная или не оч прокрастинация</t>
+  </si>
+  <si>
+    <t>Пример</t>
+  </si>
+  <si>
+    <t>Рецептик, пост в фиде / тг</t>
+  </si>
+  <si>
+    <t>Почитать в элке</t>
+  </si>
+  <si>
+    <t>Чтение</t>
+  </si>
+  <si>
+    <t>Привычка "закинуть чтото в блог / зафиксировать день"</t>
+  </si>
+  <si>
+    <t>Рутинычи, завести доходы в сноуболле, оформить тиньк мобайл</t>
+  </si>
+  <si>
+    <t>р1</t>
+  </si>
+  <si>
+    <t>р2</t>
   </si>
 </sst>
 </file>
@@ -103,9 +118,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -182,7 +200,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>аг</c:v>
+                  <c:v>р2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -292,6 +310,9 @@
                 <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -310,7 +331,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>рбкн</c:v>
+                  <c:v>р1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -420,6 +441,9 @@
                 <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -548,6 +572,9 @@
                 <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -675,6 +702,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1800,7 +1830,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1810,19 +1840,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2018,9 +2048,21 @@
       <c r="A11" s="1">
         <v>45458</v>
       </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -2103,49 +2145,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9005C9BF-FB02-4574-8AA4-757E33886A08}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
+      <c r="D4">
         <v>1</v>
       </c>
     </row>

--- a/scripts/work-pulse.xlsx
+++ b/scripts/work-pulse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\potykion.github.io\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C371A8E5-D246-4A23-9F3F-D586BFB1545C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCDB4B2-C7BA-48E2-B0C3-21441F6E739C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{2B2692C1-2028-4975-A8F7-C513352BE6D3}"/>
   </bookViews>
@@ -313,6 +313,9 @@
                 <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -444,6 +447,9 @@
                 <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -575,6 +581,9 @@
                 <c:pt idx="9">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -704,6 +713,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1830,7 +1842,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2069,9 +2081,21 @@
       <c r="A12" s="1">
         <v>45459</v>
       </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">

--- a/scripts/work-pulse.xlsx
+++ b/scripts/work-pulse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\potykion.github.io\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCDB4B2-C7BA-48E2-B0C3-21441F6E739C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364416C8-259F-457F-8085-1D90CBF45145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{2B2692C1-2028-4975-A8F7-C513352BE6D3}"/>
   </bookViews>

--- a/scripts/work-pulse.xlsx
+++ b/scripts/work-pulse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\potykion.github.io\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364416C8-259F-457F-8085-1D90CBF45145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7841405-1C38-4367-BD5F-903373956EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{2B2692C1-2028-4975-A8F7-C513352BE6D3}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11710" xr2:uid="{2B2692C1-2028-4975-A8F7-C513352BE6D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Пульс" sheetId="1" r:id="rId1"/>
@@ -316,6 +316,9 @@
                 <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -450,6 +453,9 @@
                 <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -584,6 +590,9 @@
                 <c:pt idx="10">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -716,6 +725,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1842,7 +1854,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2102,9 +2114,21 @@
       <c r="A13" s="1">
         <v>45460</v>
       </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">

--- a/scripts/work-pulse.xlsx
+++ b/scripts/work-pulse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\potykion.github.io\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7841405-1C38-4367-BD5F-903373956EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEEA124-7474-4179-9096-65D6FA8DC672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11710" xr2:uid="{2B2692C1-2028-4975-A8F7-C513352BE6D3}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="11710" xr2:uid="{2B2692C1-2028-4975-A8F7-C513352BE6D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Пульс" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -114,16 +114,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -156,6 +288,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Пульс</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -216,10 +373,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Пульс!$A$2:$A$19</c:f>
+              <c:f>Пульс!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>45449</c:v>
                 </c:pt>
@@ -258,31 +415,16 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>45461</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45462</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45463</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45464</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45465</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Пульс!$B$2:$B$19</c:f>
+              <c:f>Пульс!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -318,13 +460,16 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5ED1-4D15-AD6F-D85CD92A3889}"/>
+              <c16:uniqueId val="{00000000-D25D-4A46-8116-3BAE489BB75B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -353,10 +498,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Пульс!$A$2:$A$19</c:f>
+              <c:f>Пульс!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>45449</c:v>
                 </c:pt>
@@ -395,31 +540,16 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>45461</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45462</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45463</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45464</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45465</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Пульс!$C$2:$C$19</c:f>
+              <c:f>Пульс!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -454,6 +584,9 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -461,7 +594,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5ED1-4D15-AD6F-D85CD92A3889}"/>
+              <c16:uniqueId val="{00000001-D25D-4A46-8116-3BAE489BB75B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -490,10 +623,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Пульс!$A$2:$A$19</c:f>
+              <c:f>Пульс!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>45449</c:v>
                 </c:pt>
@@ -532,31 +665,16 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>45461</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45462</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45463</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45464</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45465</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Пульс!$D$2:$D$19</c:f>
+              <c:f>Пульс!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -592,13 +710,16 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5ED1-4D15-AD6F-D85CD92A3889}"/>
+              <c16:uniqueId val="{00000002-D25D-4A46-8116-3BAE489BB75B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -620,17 +741,17 @@
             <a:solidFill>
               <a:schemeClr val="accent4"/>
             </a:solidFill>
-            <a:ln w="25400">
+            <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Пульс!$A$2:$A$19</c:f>
+              <c:f>Пульс!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>45449</c:v>
                 </c:pt>
@@ -669,31 +790,16 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>45461</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45462</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45463</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45464</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45465</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Пульс!$E$2:$E$19</c:f>
+              <c:f>Пульс!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -729,13 +835,16 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5ED1-4D15-AD6F-D85CD92A3889}"/>
+              <c16:uniqueId val="{00000003-D25D-4A46-8116-3BAE489BB75B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -747,11 +856,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1929873632"/>
-        <c:axId val="1929874592"/>
+        <c:axId val="305996191"/>
+        <c:axId val="305983231"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="1929873632"/>
+        <c:axId val="305996191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -794,14 +903,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1929874592"/>
+        <c:crossAx val="305983231"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1929874592"/>
+        <c:axId val="305983231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,7 +961,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1929873632"/>
+        <c:crossAx val="305996191"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1497,23 +1606,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3">
+        <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F90914E-F1AC-B5E3-C9BB-7ED238FC1BE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201C9B7C-AAB6-FBCC-4A90-BA0B6B1AF229}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1854,336 +1963,321 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="14"/>
+    <col min="3" max="5" width="8.7265625" style="9"/>
+    <col min="6" max="6" width="11.81640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
         <v>45449</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="15">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="7">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="11">
         <f>SUM(B2:E2)</f>
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>45450</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="14">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="9">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="9">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="9">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="10">
         <f t="shared" ref="F3:F19" si="0">SUM(B3:E3)</f>
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>45451</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="15">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>45452</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="16">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6" s="8">
         <v>45453</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="14">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>7</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="9">
         <v>7</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="9">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7" s="8">
         <v>45454</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="14">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="9">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>45455</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="17">
         <v>2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9" s="8">
         <v>45456</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="14">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="9">
         <v>5</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10" s="8">
         <v>45457</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="14">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="9">
         <v>3</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="9">
         <v>3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="9">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11" s="6">
         <v>45458</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="15">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <v>4</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="7">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>45459</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="16">
         <v>2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>4</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13" s="8">
         <v>45460</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="14">
         <v>4</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="9">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="9">
         <v>2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="9">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>45461</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B14" s="16">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12">
+        <f>SUM(B14:E14)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>45462</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A15"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>45463</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A16"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>45464</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>45465</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>45466</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2201,17 +2295,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="47.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
@@ -2222,10 +2316,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
@@ -2236,10 +2330,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
@@ -2250,10 +2344,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">

--- a/scripts/work-pulse.xlsx
+++ b/scripts/work-pulse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\potykion.github.io\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEEA124-7474-4179-9096-65D6FA8DC672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B24B67-7CB7-4F44-8F1B-B5FC8B60B33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="11710" xr2:uid="{2B2692C1-2028-4975-A8F7-C513352BE6D3}"/>
   </bookViews>
